--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/052839bc2c07209a/Desktop/JavaConcepts/JavaCoding/OrangeHRM/TestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="11_F25DC773A252ABDACC1048E231DD66765BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB18EE4E-6B3F-42DB-AD88-61B9F6CC36CE}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:801_{D8056594-5B01-4BD0-937E-F7DEE8DA70C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5852505-BEC2-41DE-A6C6-8503F8DC5EAB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3312" yWindow="3312" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SearchOptions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,66 +25,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>SlNo</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Positive Values</t>
   </si>
   <si>
-    <t>Negative Values</t>
+    <t>PIM</t>
+  </si>
+  <si>
+    <t>Leave</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Recruitment</t>
+  </si>
+  <si>
+    <t>My Info</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>Directory</t>
+  </si>
+  <si>
+    <t>Claim</t>
+  </si>
+  <si>
+    <t>Buzz</t>
+  </si>
+  <si>
+    <t>DashBoard</t>
+  </si>
+  <si>
+    <t>Maintenance</t>
   </si>
   <si>
     <t>Admin</t>
-  </si>
-  <si>
-    <t>PIM</t>
-  </si>
-  <si>
-    <t>Leave</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Recruitment</t>
-  </si>
-  <si>
-    <t>My Info</t>
-  </si>
-  <si>
-    <t>Performance</t>
-  </si>
-  <si>
-    <t>Dashboard</t>
-  </si>
-  <si>
-    <t>Directory</t>
-  </si>
-  <si>
-    <t>Maintenence</t>
-  </si>
-  <si>
-    <t>Claim</t>
-  </si>
-  <si>
-    <t>Buzz</t>
-  </si>
-  <si>
-    <t>Hey</t>
-  </si>
-  <si>
-    <t>Hello</t>
-  </si>
-  <si>
-    <t>Admin space</t>
-  </si>
-  <si>
-    <t>New Value</t>
-  </si>
-  <si>
-    <t>Engage</t>
   </si>
 </sst>
 </file>
@@ -140,14 +119,6 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -414,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -427,129 +398,73 @@
     <col min="3" max="3" width="49.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>